--- a/tables/OSM_model_selection_summary_formatted.xlsx
+++ b/tables/OSM_model_selection_summary_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidanbrushett\Desktop\projects\OSM_red_squirrel_distribution\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C776183-AB68-4C72-B1A5-83AFE963FA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67E593-7F99-4408-9DDB-C11B58120E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,18 +40,6 @@
     <t>weight</t>
   </si>
   <si>
-    <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub + harvest + wells + nonveg_anthro_ed + veg_anthro_ed + harvest * veg_anthro_ed</t>
-  </si>
-  <si>
-    <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub + harvest + wells + nonveg_anthro_ed + veg_anthro_ed</t>
-  </si>
-  <si>
-    <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub + nonveg_anthro_ed + veg_anthro_ed</t>
-  </si>
-  <si>
-    <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub + harvest + pipe_trans + seismic + wells</t>
-  </si>
-  <si>
     <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub</t>
   </si>
   <si>
@@ -74,6 +62,18 @@
   </si>
   <si>
     <t>NAT</t>
+  </si>
+  <si>
+    <t>NAT + harvest + pipe_trans + seismic + wells</t>
+  </si>
+  <si>
+    <t>NAT + nonveg_anthro_ed + veg_anthro_ed</t>
+  </si>
+  <si>
+    <t>NAT + harvest + wells + nonveg_anthro_ed + veg_anthro_ed</t>
+  </si>
+  <si>
+    <t>NAT + wells + nonveg_anthro_ed + harvest * veg_anthro_ed</t>
   </si>
 </sst>
 </file>
@@ -507,13 +507,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -549,13 +549,13 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11">
         <v>11</v>
@@ -571,13 +571,13 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11">
         <v>10</v>
@@ -593,13 +593,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="11">
         <v>8</v>
@@ -615,13 +615,13 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" s="11">
         <v>10</v>
@@ -640,10 +640,10 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="11">
         <v>6</v>
@@ -662,10 +662,10 @@
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" s="14">
         <v>2</v>

--- a/tables/OSM_model_selection_summary_formatted.xlsx
+++ b/tables/OSM_model_selection_summary_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidanbrushett\Desktop\projects\OSM_red_squirrel_distribution\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67E593-7F99-4408-9DDB-C11B58120E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9E4B1-F111-42EE-8FEE-CA93D06724D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,60 +20,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>Covariates</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>AICc</t>
+  </si>
+  <si>
+    <t>ΔAICc</t>
+  </si>
+  <si>
+    <t>AICw</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>EDGE × CFI</t>
+  </si>
+  <si>
+    <t>ANTHRO VEGETATED</t>
+  </si>
+  <si>
+    <t>ANTHRO ACTIVE</t>
+  </si>
+  <si>
+    <t>ANTHRO ACTIVE + HARVEST</t>
+  </si>
+  <si>
+    <t>ANTHRO VEGETATED + HARVEST</t>
+  </si>
+  <si>
+    <t>EDGE + CFI</t>
+  </si>
+  <si>
+    <t>CORE + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
+  </si>
+  <si>
+    <t>CORE + Harvest &lt;15 + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
+  </si>
+  <si>
+    <t>CORE + Edge Density +CFI</t>
+  </si>
+  <si>
+    <t>CORE + Mesh Index + Edge Density</t>
+  </si>
+  <si>
+    <t>CORE + Mesh Index + Shannon's Evenness + Edge Density</t>
+  </si>
+  <si>
+    <t>CORE + Industrial Facilities + Active Well Sites + Harvest &lt;15 + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
+  </si>
+  <si>
+    <t>CORE + Shannon's Evenness + Edge Density</t>
+  </si>
+  <si>
+    <t>CORE + Edge Density</t>
+  </si>
+  <si>
+    <t>CORE + Mesh Index</t>
+  </si>
+  <si>
+    <t>CORE + Shannon's Evenness</t>
+  </si>
+  <si>
+    <t>CORE + Harvest &lt;15</t>
+  </si>
+  <si>
+    <t>CORE + Mesh Index + Shannon's Evenness</t>
+  </si>
+  <si>
+    <t>CORE + Industrial Facilities + Active Well Sites</t>
+  </si>
+  <si>
+    <t>CORE + Industrial Facilities + Active Well Sites + Harvest &lt;15</t>
+  </si>
+  <si>
+    <t>Fire &lt;15 + Broadleaf +Coniferous + Mixedwood</t>
+  </si>
+  <si>
+    <t>HARVEST</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>CORE + Edge Density + CFI + Edge Density × CFI</t>
+  </si>
+  <si>
+    <t>EDGE + MESH</t>
+  </si>
+  <si>
+    <t>SHEI + EDGE</t>
+  </si>
+  <si>
+    <t>SHEI</t>
+  </si>
+  <si>
+    <t>MESH + SHEI</t>
+  </si>
+  <si>
+    <t>EDGE + MESH + SHEI</t>
+  </si>
+  <si>
+    <t>EDGE</t>
+  </si>
+  <si>
+    <t>MESH</t>
+  </si>
   <si>
     <t>Hypothesis</t>
   </si>
   <si>
-    <t>Covariates</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>AICc</t>
-  </si>
-  <si>
-    <t>ΔAICc</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>NAT + COMP * CONFIG</t>
-  </si>
-  <si>
-    <t>NAT + COMP + CONFIG</t>
-  </si>
-  <si>
-    <t>NAT + CONFIG</t>
-  </si>
-  <si>
-    <t>NAT + COMP</t>
-  </si>
-  <si>
-    <t>NAT</t>
-  </si>
-  <si>
-    <t>NAT + harvest + pipe_trans + seismic + wells</t>
-  </si>
-  <si>
-    <t>NAT + nonveg_anthro_ed + veg_anthro_ed</t>
-  </si>
-  <si>
-    <t>NAT + harvest + wells + nonveg_anthro_ed + veg_anthro_ed</t>
-  </si>
-  <si>
-    <t>NAT + wells + nonveg_anthro_ed + harvest * veg_anthro_ed</t>
+    <t>ALL ANTHRO + HARVEST</t>
+  </si>
+  <si>
+    <t>Natural Habitat</t>
+  </si>
+  <si>
+    <t>Disturbance composition</t>
+  </si>
+  <si>
+    <t>Disturbance configuration</t>
+  </si>
+  <si>
+    <t>Context-dependent disturbance configuration</t>
   </si>
 </sst>
 </file>
@@ -83,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +181,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,11 +238,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,26 +260,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -191,13 +300,61 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,197 +661,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="F3" s="20">
+        <v>4</v>
+      </c>
+      <c r="G3" s="21">
+        <v>9423.7885613020371</v>
+      </c>
+      <c r="H3" s="21">
+        <v>29.346856855931041</v>
+      </c>
+      <c r="I3" s="22">
+        <v>2.4106284686095051E-7</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="28">
+        <v>8</v>
+      </c>
+      <c r="G4" s="29">
+        <v>9405.7105355078111</v>
+      </c>
+      <c r="H4" s="29">
+        <v>11.26883106170499</v>
+      </c>
+      <c r="I4" s="30">
+        <v>2.031064447499589E-3</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10">
+        <v>11</v>
+      </c>
+      <c r="G5" s="11">
+        <v>9397.0277492913283</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2.586044845222204</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.15601515067440611</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="15">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16">
+        <v>9407.0206940198914</v>
+      </c>
+      <c r="H6" s="16">
+        <v>12.578989573785289</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1.0549366924381639E-3</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="15">
+        <v>9</v>
+      </c>
+      <c r="G7" s="16">
+        <v>9406.8003342259035</v>
+      </c>
+      <c r="H7" s="16">
+        <v>12.358629779797409</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1.177814561732592E-3</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15">
+        <v>12</v>
+      </c>
+      <c r="G8" s="16">
+        <v>9398.5635674293917</v>
+      </c>
+      <c r="H8" s="16">
+        <v>4.1218629832856104</v>
+      </c>
+      <c r="I8" s="17">
+        <v>7.2388254329300017E-2</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="15">
+        <v>11</v>
+      </c>
+      <c r="G9" s="16">
+        <v>9407.7752613724424</v>
+      </c>
+      <c r="H9" s="16">
+        <v>13.333556926336311</v>
+      </c>
+      <c r="I9" s="17">
+        <v>7.2339279580272645E-4</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="28">
+        <v>14</v>
+      </c>
+      <c r="G10" s="29">
+        <v>9401.2974597040557</v>
+      </c>
+      <c r="H10" s="29">
+        <v>6.8557552579495677</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1.8450618922849271E-2</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="15">
+        <v>9</v>
+      </c>
+      <c r="G11" s="16">
+        <v>9402.2417637451617</v>
+      </c>
+      <c r="H11" s="16">
+        <v>7.800059299055647</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1.1506888952041459E-2</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="15">
+        <v>9</v>
+      </c>
+      <c r="G12" s="16">
+        <v>9405.2987304650942</v>
+      </c>
+      <c r="H12" s="16">
+        <v>10.85702601898811</v>
+      </c>
+      <c r="I12" s="17">
+        <v>2.4954336840441638E-3</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="15">
+        <v>9</v>
+      </c>
+      <c r="G13" s="16">
+        <v>9406.5845711287875</v>
+      </c>
+      <c r="H13" s="16">
+        <v>12.14286668268142</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1.3119862411149631E-3</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15">
+        <v>10</v>
+      </c>
+      <c r="G14" s="16">
+        <v>9399.7900617976393</v>
+      </c>
+      <c r="H14" s="16">
+        <v>5.3483573515331946</v>
+      </c>
+      <c r="I14" s="17">
+        <v>3.9204709076576937E-2</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="16">
+        <v>9402.0676960372657</v>
+      </c>
+      <c r="H15" s="16">
+        <v>7.6259915911596181</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1.2553251921613429E-2</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="15">
+        <v>10</v>
+      </c>
+      <c r="G16" s="16">
+        <v>9406.8926899768376</v>
+      </c>
+      <c r="H16" s="16">
+        <v>12.45098553073149</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1.1246622625156529E-3</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="11">
+      <c r="F17" s="28">
         <v>11</v>
       </c>
-      <c r="E3" s="11">
-        <v>2550.033106347425</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="G17" s="29">
+        <v>9400.8691586877667</v>
+      </c>
+      <c r="H17" s="29">
+        <v>6.4274542416605982</v>
+      </c>
+      <c r="I17" s="30">
+        <v>2.2856794467654991E-2</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15">
+        <v>10</v>
+      </c>
+      <c r="G18" s="16">
+        <v>9399.3478381494588</v>
+      </c>
+      <c r="H18" s="16">
+        <v>4.9061337033526797</v>
+      </c>
+      <c r="I18" s="17">
+        <v>4.890642082991227E-2</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="34">
+        <v>11</v>
+      </c>
+      <c r="G19" s="35">
+        <v>9394.4417044461061</v>
+      </c>
+      <c r="H19" s="35">
         <v>0</v>
       </c>
-      <c r="G3" s="13">
-        <v>0.99449811276325883</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11">
-        <v>2560.427416341468</v>
-      </c>
-      <c r="F4" s="12">
-        <v>10.3943099940434</v>
-      </c>
-      <c r="G4" s="13">
-        <v>5.5018434213283127E-3</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2583.9086325697881</v>
-      </c>
-      <c r="F5" s="12">
-        <v>33.875526222363533</v>
-      </c>
-      <c r="G5" s="13">
-        <v>4.3815412866000772E-8</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2644.6257521783068</v>
-      </c>
-      <c r="F6" s="12">
-        <v>94.592645830882702</v>
-      </c>
-      <c r="G6" s="13">
-        <v>2.8646522356154058E-21</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2710.430239162145</v>
-      </c>
-      <c r="F7" s="12">
-        <v>160.39713281472041</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1.4716655241824361E-35</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2759.182572675928</v>
-      </c>
-      <c r="F8" s="15">
-        <v>209.14946632850391</v>
-      </c>
-      <c r="G8" s="16">
-        <v>3.8139448039323438E-46</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="I19" s="36">
+        <v>0.56848535088857044</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C8" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/tables/OSM_model_selection_summary_formatted.xlsx
+++ b/tables/OSM_model_selection_summary_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidanbrushett\Desktop\projects\OSM_red_squirrel_distribution\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmya\Documents\GitHub\OSM_red_squirrel_distribution\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9E4B1-F111-42EE-8FEE-CA93D06724D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECFC964-7ECC-4BE1-8736-CEB6404FEFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-3315" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Covariates</t>
   </si>
@@ -37,15 +37,9 @@
     <t>AICw</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
-    <t>EDGE × CFI</t>
-  </si>
-  <si>
     <t>ANTHRO VEGETATED</t>
   </si>
   <si>
@@ -58,18 +52,12 @@
     <t>ANTHRO VEGETATED + HARVEST</t>
   </si>
   <si>
-    <t>EDGE + CFI</t>
-  </si>
-  <si>
     <t>CORE + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
   </si>
   <si>
     <t>CORE + Harvest &lt;15 + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
   </si>
   <si>
-    <t>CORE + Edge Density +CFI</t>
-  </si>
-  <si>
     <t>CORE + Mesh Index + Edge Density</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>CORE</t>
   </si>
   <si>
-    <t>CORE + Edge Density + CFI + Edge Density × CFI</t>
-  </si>
-  <si>
     <t>EDGE + MESH</t>
   </si>
   <si>
@@ -155,6 +140,18 @@
   </si>
   <si>
     <t>Context-dependent disturbance configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORE + Edge Density + Site Disturbance      </t>
+  </si>
+  <si>
+    <t>EDGE + Site Disturbance</t>
+  </si>
+  <si>
+    <t>EDGE × Site Disturbance</t>
+  </si>
+  <si>
+    <t>CORE + Edge Density + Site Disturbance + Edge Density × Site Disturbance</t>
   </si>
 </sst>
 </file>
@@ -251,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,24 +297,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -356,6 +335,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,20 +645,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="2"/>
+    <col min="3" max="3" width="28.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.109375" style="2"/>
     <col min="11" max="11" width="2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
@@ -687,14 +669,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>0</v>
@@ -714,69 +696,69 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
         <v>4</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="16">
         <v>9423.7885613020371</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="16">
         <v>29.346856855931041</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="17">
         <v>2.4106284686095051E-7</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="22">
         <v>8</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="23">
         <v>9405.7105355078111</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="23">
         <v>11.26883106170499</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="24">
         <v>2.031064447499589E-3</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="23" t="s">
-        <v>42</v>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="10">
         <v>11</v>
@@ -793,15 +775,15 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="23"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="15">
         <v>10</v>
@@ -818,15 +800,15 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" s="15">
         <v>9</v>
@@ -843,15 +825,15 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="15">
         <v>12</v>
@@ -868,15 +850,15 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F9" s="15">
         <v>11</v>
@@ -893,42 +875,42 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="28">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="29">
+      <c r="F10" s="22">
+        <v>14</v>
+      </c>
+      <c r="G10" s="23">
         <v>9401.2974597040557</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="23">
         <v>6.8557552579495677</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="24">
         <v>1.8450618922849271E-2</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="15">
         <v>9</v>
@@ -945,15 +927,15 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12" s="15">
         <v>9</v>
@@ -970,15 +952,15 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13" s="15">
         <v>9</v>
@@ -995,15 +977,15 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="15">
         <v>10</v>
@@ -1020,15 +1002,15 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F15" s="15">
         <v>10</v>
@@ -1045,15 +1027,15 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F16" s="15">
         <v>10</v>
@@ -1070,42 +1052,42 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="28">
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="22">
         <v>11</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="23">
         <v>9400.8691586877667</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="23">
         <v>6.4274542416605982</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="24">
         <v>2.2856794467654991E-2</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="24" t="s">
-        <v>44</v>
+      <c r="C18" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F18" s="15">
         <v>10</v>
@@ -1122,32 +1104,32 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="C19" s="25"/>
+      <c r="D19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="28">
         <v>11</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="29">
         <v>9394.4417044461061</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="29">
         <v>0</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="30">
         <v>0.56848535088857044</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>

--- a/tables/OSM_model_selection_summary_formatted.xlsx
+++ b/tables/OSM_model_selection_summary_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmya\Documents\GitHub\OSM_red_squirrel_distribution\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidanbrushett\Desktop\projects\OSM_red_squirrel_distribution\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECFC964-7ECC-4BE1-8736-CEB6404FEFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822C791C-3505-4F17-86A7-9B8B51CA5BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-3315" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Covariates</t>
   </si>
@@ -37,21 +37,6 @@
     <t>AICw</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>ANTHRO VEGETATED</t>
-  </si>
-  <si>
-    <t>ANTHRO ACTIVE</t>
-  </si>
-  <si>
-    <t>ANTHRO ACTIVE + HARVEST</t>
-  </si>
-  <si>
-    <t>ANTHRO VEGETATED + HARVEST</t>
-  </si>
-  <si>
     <t>CORE + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
   </si>
   <si>
@@ -94,42 +79,9 @@
     <t>Fire &lt;15 + Broadleaf +Coniferous + Mixedwood</t>
   </si>
   <si>
-    <t>HARVEST</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>EDGE + MESH</t>
-  </si>
-  <si>
-    <t>SHEI + EDGE</t>
-  </si>
-  <si>
-    <t>SHEI</t>
-  </si>
-  <si>
-    <t>MESH + SHEI</t>
-  </si>
-  <si>
-    <t>EDGE + MESH + SHEI</t>
-  </si>
-  <si>
-    <t>EDGE</t>
-  </si>
-  <si>
-    <t>MESH</t>
-  </si>
-  <si>
     <t>Hypothesis</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>ALL ANTHRO + HARVEST</t>
-  </si>
-  <si>
     <t>Natural Habitat</t>
   </si>
   <si>
@@ -145,13 +97,16 @@
     <t xml:space="preserve">CORE + Edge Density + Site Disturbance      </t>
   </si>
   <si>
-    <t>EDGE + Site Disturbance</t>
-  </si>
-  <si>
-    <t>EDGE × Site Disturbance</t>
-  </si>
-  <si>
     <t>CORE + Edge Density + Site Disturbance + Edge Density × Site Disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CORE + Cohesion + Mesh Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CORE + Cohesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CORE + Cohesion + Shannon's Evenness</t>
   </si>
 </sst>
 </file>
@@ -248,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,9 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -303,9 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -321,9 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -335,9 +281,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,22 +586,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.109375" style="2"/>
-    <col min="11" max="11" width="2" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="2" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
@@ -667,471 +609,482 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="31">
+      <c r="C3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13">
         <v>1</v>
       </c>
+      <c r="E3" s="14">
+        <v>4</v>
+      </c>
       <c r="F3" s="15">
-        <v>4</v>
-      </c>
-      <c r="G3" s="16">
         <v>9423.7885613020371</v>
       </c>
+      <c r="G3" s="15">
+        <v>29.346856855931041</v>
+      </c>
       <c r="H3" s="16">
-        <v>29.346856855931041</v>
-      </c>
-      <c r="I3" s="17">
         <v>2.4106284686095051E-7</v>
       </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="22">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="20">
         <v>8</v>
       </c>
-      <c r="G4" s="23">
+      <c r="F4" s="21">
         <v>9405.7105355078111</v>
       </c>
-      <c r="H4" s="23">
+      <c r="G4" s="21">
         <v>11.26883106170499</v>
       </c>
-      <c r="I4" s="24">
+      <c r="H4" s="22">
         <v>2.031064447499589E-3</v>
       </c>
+      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>11</v>
       </c>
       <c r="F5" s="10">
-        <v>11</v>
-      </c>
-      <c r="G5" s="11">
         <v>9397.0277492913283</v>
       </c>
+      <c r="G5" s="10">
+        <v>2.586044845222204</v>
+      </c>
       <c r="H5" s="11">
-        <v>2.586044845222204</v>
-      </c>
-      <c r="I5" s="12">
         <v>0.15601515067440611</v>
       </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
       </c>
       <c r="F6" s="15">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16">
         <v>9407.0206940198914</v>
       </c>
+      <c r="G6" s="15">
+        <v>12.578989573785289</v>
+      </c>
       <c r="H6" s="16">
-        <v>12.578989573785289</v>
-      </c>
-      <c r="I6" s="17">
         <v>1.0549366924381639E-3</v>
       </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="14">
+        <v>9</v>
       </c>
       <c r="F7" s="15">
-        <v>9</v>
-      </c>
-      <c r="G7" s="16">
         <v>9406.8003342259035</v>
       </c>
+      <c r="G7" s="15">
+        <v>12.358629779797409</v>
+      </c>
       <c r="H7" s="16">
-        <v>12.358629779797409</v>
-      </c>
-      <c r="I7" s="17">
         <v>1.177814561732592E-3</v>
       </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="14">
+        <v>12</v>
       </c>
       <c r="F8" s="15">
-        <v>12</v>
-      </c>
-      <c r="G8" s="16">
         <v>9398.5635674293917</v>
       </c>
+      <c r="G8" s="15">
+        <v>4.1218629832856104</v>
+      </c>
       <c r="H8" s="16">
-        <v>4.1218629832856104</v>
-      </c>
-      <c r="I8" s="17">
         <v>7.2388254329300017E-2</v>
       </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="14">
+        <v>11</v>
       </c>
       <c r="F9" s="15">
-        <v>11</v>
-      </c>
-      <c r="G9" s="16">
         <v>9407.7752613724424</v>
       </c>
+      <c r="G9" s="15">
+        <v>13.333556926336311</v>
+      </c>
       <c r="H9" s="16">
-        <v>13.333556926336311</v>
-      </c>
-      <c r="I9" s="17">
         <v>7.2339279580272645E-4</v>
       </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20">
         <v>14</v>
       </c>
-      <c r="F10" s="22">
-        <v>14</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="F10" s="21">
         <v>9401.2974597040557</v>
       </c>
-      <c r="H10" s="23">
+      <c r="G10" s="21">
         <v>6.8557552579495677</v>
       </c>
-      <c r="I10" s="24">
+      <c r="H10" s="22">
         <v>1.8450618922849271E-2</v>
       </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="14">
+        <v>9</v>
       </c>
       <c r="F11" s="15">
-        <v>9</v>
-      </c>
-      <c r="G11" s="16">
         <v>9402.2417637451617</v>
       </c>
+      <c r="G11" s="15">
+        <v>7.800059299055647</v>
+      </c>
       <c r="H11" s="16">
-        <v>7.800059299055647</v>
-      </c>
-      <c r="I11" s="17">
         <v>1.1506888952041459E-2</v>
       </c>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="14">
+        <v>9</v>
       </c>
       <c r="F12" s="15">
-        <v>9</v>
-      </c>
-      <c r="G12" s="16">
         <v>9405.2987304650942</v>
       </c>
+      <c r="G12" s="15">
+        <v>10.85702601898811</v>
+      </c>
       <c r="H12" s="16">
-        <v>10.85702601898811</v>
-      </c>
-      <c r="I12" s="17">
         <v>2.4954336840441638E-3</v>
       </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="14">
+        <v>9</v>
       </c>
       <c r="F13" s="15">
-        <v>9</v>
-      </c>
-      <c r="G13" s="16">
         <v>9406.5845711287875</v>
       </c>
+      <c r="G13" s="15">
+        <v>12.14286668268142</v>
+      </c>
       <c r="H13" s="16">
-        <v>12.14286668268142</v>
-      </c>
-      <c r="I13" s="17">
         <v>1.3119862411149631E-3</v>
       </c>
+      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>12</v>
+      <c r="E14" s="14">
+        <v>10</v>
       </c>
       <c r="F14" s="15">
-        <v>10</v>
-      </c>
-      <c r="G14" s="16">
-        <v>9399.7900617976393</v>
+        <v>9402.879131843134</v>
+      </c>
+      <c r="G14" s="15">
+        <v>8.4374273970279319</v>
       </c>
       <c r="H14" s="16">
-        <v>5.3483573515331946</v>
-      </c>
-      <c r="I14" s="17">
-        <v>3.9204709076576937E-2</v>
-      </c>
+        <v>8.2290708445013211E-3</v>
+      </c>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>15</v>
+      <c r="E15" s="14">
+        <v>9</v>
       </c>
       <c r="F15" s="15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="16">
-        <v>9402.0676960372657</v>
+        <v>9404.1731500586357</v>
+      </c>
+      <c r="G15" s="15">
+        <v>9.7314456125295692</v>
       </c>
       <c r="H15" s="16">
-        <v>7.6259915911596181</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1.2553251921613429E-2</v>
-      </c>
+        <v>4.3088196433767488E-3</v>
+      </c>
+      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="E16" s="14">
+        <v>10</v>
       </c>
       <c r="F16" s="15">
-        <v>10</v>
-      </c>
-      <c r="G16" s="16">
-        <v>9406.8926899768376</v>
+        <v>9404.3653528400318</v>
+      </c>
+      <c r="G16" s="15">
+        <v>9.9236483939257596</v>
       </c>
       <c r="H16" s="16">
-        <v>12.45098553073149</v>
-      </c>
-      <c r="I16" s="17">
-        <v>1.1246622625156529E-3</v>
-      </c>
+        <v>3.9140107333383266E-3</v>
+      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="22">
-        <v>11</v>
-      </c>
-      <c r="G17" s="23">
-        <v>9400.8691586877667</v>
-      </c>
-      <c r="H17" s="23">
-        <v>6.4274542416605982</v>
-      </c>
-      <c r="I17" s="24">
-        <v>2.2856794467654991E-2</v>
-      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="14">
+        <v>10</v>
+      </c>
+      <c r="F17" s="15">
+        <v>9399.7900617976393</v>
+      </c>
+      <c r="G17" s="15">
+        <v>5.3483573515331946</v>
+      </c>
+      <c r="H17" s="16">
+        <v>3.9204709076576937E-2</v>
+      </c>
+      <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="14">
+        <v>10</v>
       </c>
       <c r="F18" s="15">
-        <v>10</v>
-      </c>
-      <c r="G18" s="16">
-        <v>9399.3478381494588</v>
+        <v>9402.0676960372657</v>
+      </c>
+      <c r="G18" s="15">
+        <v>7.6259915911596181</v>
       </c>
       <c r="H18" s="16">
-        <v>4.9061337033526797</v>
-      </c>
-      <c r="I18" s="17">
-        <v>4.890642082991227E-2</v>
-      </c>
+        <v>1.2553251921613429E-2</v>
+      </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="28">
+      <c r="C19" s="6"/>
+      <c r="D19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="14">
+        <v>10</v>
+      </c>
+      <c r="F19" s="15">
+        <v>9406.8926899768376</v>
+      </c>
+      <c r="G19" s="15">
+        <v>12.45098553073149</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1.1246622625156529E-3</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="20">
         <v>11</v>
       </c>
-      <c r="G19" s="29">
+      <c r="F20" s="21">
+        <v>9400.8691586877667</v>
+      </c>
+      <c r="G20" s="21">
+        <v>6.4274542416605982</v>
+      </c>
+      <c r="H20" s="22">
+        <v>2.2856794467654991E-2</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="14">
+        <v>10</v>
+      </c>
+      <c r="F21" s="15">
+        <v>9399.3478381494588</v>
+      </c>
+      <c r="G21" s="15">
+        <v>4.9061337033526797</v>
+      </c>
+      <c r="H21" s="16">
+        <v>4.890642082991227E-2</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" s="7" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="25">
+        <v>11</v>
+      </c>
+      <c r="F22" s="26">
         <v>9394.4417044461061</v>
       </c>
-      <c r="H19" s="29">
+      <c r="G22" s="26">
         <v>0</v>
       </c>
-      <c r="I19" s="30">
+      <c r="H22" s="27">
         <v>0.56848535088857044</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
